--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhba-Acvr1c.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhba-Acvr1c.xlsx
@@ -531,22 +531,22 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.288150666666666</v>
+        <v>0.1285113333333333</v>
       </c>
       <c r="H2">
-        <v>6.864451999999999</v>
+        <v>0.385534</v>
       </c>
       <c r="I2">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="J2">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.06159625322977776</v>
+        <v>0.003459482256222222</v>
       </c>
       <c r="R2">
-        <v>0.554366279068</v>
+        <v>0.031135340306</v>
       </c>
       <c r="S2">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
       <c r="T2">
-        <v>0.396421904194415</v>
+        <v>0.03749201237720504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>7.766681999999999</v>
       </c>
       <c r="I3">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="J3">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -635,10 +635,10 @@
         <v>0.6272294716379999</v>
       </c>
       <c r="S3">
-        <v>0.4485256605643812</v>
+        <v>0.7552862722193517</v>
       </c>
       <c r="T3">
-        <v>0.4485256605643813</v>
+        <v>0.755286272219352</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5826116666666666</v>
+        <v>0.692415</v>
       </c>
       <c r="H4">
-        <v>1.747835</v>
+        <v>2.077245</v>
       </c>
       <c r="I4">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="J4">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.01568371186277778</v>
+        <v>0.018639580995</v>
       </c>
       <c r="R4">
-        <v>0.141153406765</v>
+        <v>0.167756228955</v>
       </c>
       <c r="S4">
-        <v>0.1009374206298835</v>
+        <v>0.2020057770533527</v>
       </c>
       <c r="T4">
-        <v>0.1009374206298836</v>
+        <v>0.2020057770533527</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3123523333333333</v>
+        <v>0.01787866666666667</v>
       </c>
       <c r="H5">
-        <v>0.9370569999999999</v>
+        <v>0.053636</v>
       </c>
       <c r="I5">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="J5">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.008408420695888886</v>
+        <v>0.0004812877471111111</v>
       </c>
       <c r="R5">
-        <v>0.07567578626299999</v>
+        <v>0.004331589724</v>
       </c>
       <c r="S5">
-        <v>0.05411501461132016</v>
+        <v>0.005215938350090445</v>
       </c>
       <c r="T5">
-        <v>0.05411501461132018</v>
+        <v>0.005215938350090446</v>
       </c>
     </row>
   </sheetData>
